--- a/Assets/ArtRes/Excel/StoryEventData.xlsx
+++ b/Assets/ArtRes/Excel/StoryEventData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\YM\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2621E7B-AF1A-4BE6-B922-8466C7D2946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD4CEE-446B-4F22-9570-33A647C409BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2970" windowWidth="34920" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3675" windowWidth="35145" windowHeight="17325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoryEventData" sheetId="1" r:id="rId1"/>
     <sheet name="StoryEventStoredData" sheetId="2" r:id="rId2"/>
+    <sheet name="StorySceneData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testEvent1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剧情事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 剧情事件触发条件（这个条件是瞬时的，如切换到某个场景的回调）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,18 +157,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StartDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEvent2</t>
-  </si>
-  <si>
-    <t>Dialog_02</t>
+    <t>OnCutscenePlayed</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcLoadIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的npc数据id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterLoadIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的怪物数据id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情场景数据id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的场景名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerIsFacingRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家是否朝右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.8, -2.5, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadStoryScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情事件名称
+（代码里不会用，方便自己看的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayCutscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始剧情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始剧情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DongQi_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DongQi_2</t>
+  </si>
+  <si>
+    <t>-1.8, -2.5, 1</t>
+  </si>
+  <si>
+    <t>3
+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要设置摄像机位置（一般播放过场动画时，需要设置摄像机初始位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cameraPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNeedSetCameraPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,28 +656,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -576,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -585,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -601,34 +719,34 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -636,31 +754,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <v>1001</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -668,31 +786,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1002</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -730,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,18 +858,181 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4D7D0B-8C38-4D95-94E9-BD71732DA537}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
